--- a/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2009 (F09).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2009 (F09).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,441 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Browbeat</t>
+          <t>('Browbeat', ['{2}{R}', 'Sorcery', 'Any player may have Browbeat deal 5 damage to them. If no one does, target player draws three cards.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{R}</t>
+          <t>('Kitchen Finks', ['{1}{G/W}{G/W}', 'Creature — Ouphe', 'When Kitchen Finks enters the battlefield, you gain 2 life.', 'Persist (When this creature dies, if it had no -1/-1 counters on it, return it to the battlefield under its owner’s control with a -1/-1 counter on it.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Lightning Greaves', ['{2}', 'Artifact — Equipment', 'Equipped creature has haste and shroud. (It can’t be the target of spells or abilities.)', 'Equip {0}'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Any player may have Browbeat deal 5 damage to them. If no one does, target player draws three cards.</t>
+          <t>('Magma Jet', ['{1}{R}', 'Instant', 'Magma Jet deals 2 damage to any target. Scry 2.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kitchen Finks</t>
+          <t>('Merrow Reejerey', ['{2}{U}', 'Creature — Merfolk Soldier', 'Other Merfolk creatures you control get +1/+1.', 'Whenever you cast a Merfolk spell, you may tap or untap target permanent.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{1}{G/W}{G/W}</t>
+          <t>('Mulldrifter', ['{4}{U}', 'Creature — Elemental', 'Flying', 'When Mulldrifter enters the battlefield, draw two cards.', 'Evoke {2}{U} (You may cast this spell for its evoke cost. If you do, it’s sacrificed when it enters the battlefield.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Creature — Ouphe</t>
+          <t>('Murderous Redcap', ['{2}{B/R}{B/R}', 'Creature — Goblin Assassin', 'When Murderous Redcap enters the battlefield, it deals damage equal to its power to any target.', 'Persist (When this creature dies, if it had no -1/-1 counters on it, return it to the battlefield under its owner’s control with a -1/-1 counter on it.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>When Kitchen Finks enters the battlefield, you gain 2 life.</t>
+          <t>('Myr Enforcer', ['{7}', 'Artifact Creature — Myr', 'Affinity for artifacts (This spell costs {1} less to cast for each artifact you control.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Persist (When this creature dies, if it had no -1/-1 counters on it, return it to the battlefield under its owner’s control with a -1/-1 counter on it.)</t>
+          <t>('Oblivion Ring', ['{2}{W}', 'Enchantment', 'When Oblivion Ring enters the battlefield, exile another target nonland permanent.', 'When Oblivion Ring leaves the battlefield, return the exiled card to the battlefield under its owner’s control.'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/2</t>
+          <t>('Sakura-Tribe Elder', ['{1}{G}', 'Creature — Snake Shaman', 'Sacrifice Sakura-Tribe Elder: Search your library for a basic land card, put that card onto the battlefield tapped, then shuffle your library.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lightning Greaves</t>
+          <t>('Watchwolf', ['{G}{W}', 'Creature — Wolf', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{2}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Artifact — Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Equipped creature has haste and shroud. (It can’t be the target of spells or abilities.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Equip {0}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Magma Jet</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Magma Jet deals 2 damage to any target. Scry 2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Merrow Reejerey</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Creature — Merfolk Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Other Merfolk creatures you control get +1/+1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Whenever you cast a Merfolk spell, you may tap or untap target permanent.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Mulldrifter</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>{4}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>When Mulldrifter enters the battlefield, draw two cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Evoke {2}{U} (You may cast this spell for its evoke cost. If you do, it’s sacrificed when it enters the battlefield.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Murderous Redcap</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>{2}{B/R}{B/R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Creature — Goblin Assassin</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>When Murderous Redcap enters the battlefield, it deals damage equal to its power to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Persist (When this creature dies, if it had no -1/-1 counters on it, return it to the battlefield under its owner’s control with a -1/-1 counter on it.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Myr Enforcer</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>{7}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Artifact Creature — Myr</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Affinity for artifacts (This spell costs {1} less to cast for each artifact you control.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Oblivion Ring</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>{2}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>When Oblivion Ring enters the battlefield, exile another target nonland permanent.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>When Oblivion Ring leaves the battlefield, return the exiled card to the battlefield under its owner’s control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Sakura-Tribe Elder</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Creature — Snake Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Sacrifice Sakura-Tribe Elder: Search your library for a basic land card, put that card onto the battlefield tapped, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Watchwolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>{G}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Creature — Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Wren's Run Vanquisher</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Creature — Elf Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>As an additional cost to cast this spell, reveal an Elf card from your hand or pay {3}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Deathtouch (Any amount of damage this deals to a creature is enough to destroy it.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>3/3</t>
+          <t>("Wren's Run Vanquisher", ['{1}{G}', 'Creature — Elf Warrior', 'As an additional cost to cast this spell, reveal an Elf card from your hand or pay {3}.', 'Deathtouch (Any amount of damage this deals to a creature is enough to destroy it.)', '3/3'])</t>
         </is>
       </c>
     </row>
